--- a/DRM_Output/DRM_Results_Consolidated.xlsx
+++ b/DRM_Output/DRM_Results_Consolidated.xlsx
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3298.663330078125</v>
+        <v>3298.66357421875</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01087759708893705</v>
+        <v>-0.01087752307695354</v>
       </c>
     </row>
     <row r="9">
@@ -815,7 +815,7 @@
         <v>3321.125732421875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00678646656035338</v>
+        <v>0.006786392548369738</v>
       </c>
     </row>
     <row r="10">
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3328.350830078125</v>
+        <v>3328.35107421875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002173133608855504</v>
+        <v>0.002173206960682898</v>
       </c>
     </row>
     <row r="11">
@@ -841,7 +841,7 @@
         <v>3285.687255859375</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01290109473223489</v>
+        <v>-0.01290116808406238</v>
       </c>
     </row>
     <row r="12">
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3374.848388671875</v>
+        <v>3374.8486328125</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009747002547201835</v>
+        <v>0.00974707488841192</v>
       </c>
     </row>
     <row r="14">
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3428.816650390625</v>
+        <v>3428.81689453125</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0158648003251057</v>
+        <v>0.01586479918648292</v>
       </c>
     </row>
     <row r="15">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3432.355712890625</v>
+        <v>3432.35595703125</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001031620436416359</v>
+        <v>0.001031620363000034</v>
       </c>
     </row>
     <row r="16">
@@ -906,7 +906,7 @@
         <v>3439.5810546875</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002102855338687895</v>
+        <v>0.002102784209516979</v>
       </c>
     </row>
     <row r="17">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3366.050048828125</v>
+        <v>3366.05029296875</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001651354565188405</v>
+        <v>0.001651427095487236</v>
       </c>
     </row>
     <row r="19">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3418.9375</v>
+        <v>3418.937255859375</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01558986570022296</v>
+        <v>0.01558972176158919</v>
       </c>
     </row>
     <row r="20">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3430.832275390625</v>
+        <v>3430.83203125</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003473047339385543</v>
+        <v>0.003473047586959928</v>
       </c>
     </row>
     <row r="21">
@@ -971,7 +971,7 @@
         <v>3483.86669921875</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01533991978349896</v>
+        <v>0.01533999094425944</v>
       </c>
     </row>
     <row r="22">
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3458.35693359375</v>
+        <v>3458.357177734375</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.007349195817020729</v>
+        <v>-0.007349125222625453</v>
       </c>
     </row>
     <row r="23">
@@ -997,7 +997,7 @@
         <v>3466.172119140625</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002257247765346591</v>
+        <v>0.002257177170951282</v>
       </c>
     </row>
     <row r="24">
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3381.9755859375</v>
+        <v>3381.975341796875</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0006542441395807102</v>
+        <v>0.0006541719508176756</v>
       </c>
     </row>
     <row r="27">
@@ -1049,7 +1049,7 @@
         <v>3400.013916015625</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005319492933099743</v>
+        <v>0.005319565121862638</v>
       </c>
     </row>
     <row r="28">
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3462.141357421875</v>
+        <v>3462.1416015625</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01810776250532644</v>
+        <v>0.0181078330225558</v>
       </c>
     </row>
     <row r="29">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3441.69482421875</v>
+        <v>3441.694580078125</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.005923255548253246</v>
+        <v>-0.00592339700164816</v>
       </c>
     </row>
     <row r="30">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3495.614013671875</v>
+        <v>3495.61376953125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01554501219269931</v>
+        <v>0.01554501328687646</v>
       </c>
     </row>
     <row r="31">
@@ -1098,10 +1098,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3485.341064453125</v>
+        <v>3485.34130859375</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.002943137871306054</v>
+        <v>-0.002942997981476684</v>
       </c>
     </row>
     <row r="32">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3445.381103515625</v>
+        <v>3445.380859375</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01153138237747399</v>
+        <v>-0.01153152328558447</v>
       </c>
     </row>
     <row r="33">
@@ -1127,7 +1127,7 @@
         <v>3508.245849609375</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01808163115059916</v>
+        <v>0.01808170201086869</v>
       </c>
     </row>
     <row r="34">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3584.1357421875</v>
+        <v>3584.135986328125</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01380848963584181</v>
+        <v>0.01380855775285363</v>
       </c>
     </row>
     <row r="39">
@@ -1205,7 +1205,7 @@
         <v>3490.747802734375</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0264013855035096</v>
+        <v>-0.02640145362052131</v>
       </c>
     </row>
     <row r="40">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3528.299560546875</v>
+        <v>3528.2998046875</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01070006060576939</v>
+        <v>0.01070012980074909</v>
       </c>
     </row>
     <row r="41">
@@ -1231,7 +1231,7 @@
         <v>3532.4775390625</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001183433195608379</v>
+        <v>0.001183364000628775</v>
       </c>
     </row>
     <row r="42">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3645.083984375</v>
+        <v>3645.083740234375</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03137992898836584</v>
+        <v>0.03137986201031143</v>
       </c>
     </row>
     <row r="43">
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3571.6513671875</v>
+        <v>3571.651611328125</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.02035134949631707</v>
+        <v>-0.02035121416315426</v>
       </c>
     </row>
     <row r="44">
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3420.70703125</v>
+        <v>3420.706787109375</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.04318079268810843</v>
+        <v>-0.04318093241461218</v>
       </c>
     </row>
     <row r="45">
@@ -1283,7 +1283,7 @@
         <v>3340.343994140625</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.02377347004860953</v>
+        <v>-0.02377339867721424</v>
       </c>
     </row>
     <row r="46">
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3285.048583984375</v>
+        <v>3285.04833984375</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.01021169331360879</v>
+        <v>-0.0102117676323373</v>
       </c>
     </row>
     <row r="48">
@@ -1322,7 +1322,7 @@
         <v>3366.1484375</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02438775240292852</v>
+        <v>0.02438782672165715</v>
       </c>
     </row>
     <row r="49">
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3337.10009765625</v>
+        <v>3337.099853515625</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.008666998255003101</v>
+        <v>-0.008667071414520904</v>
       </c>
     </row>
     <row r="50">
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3278.904296875</v>
+        <v>3278.904541015625</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.01759288486411944</v>
+        <v>-0.01759273724661395</v>
       </c>
     </row>
     <row r="51">
@@ -1361,7 +1361,7 @@
         <v>3268.140380859375</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.00328817848169689</v>
+        <v>-0.003288252939684579</v>
       </c>
     </row>
     <row r="52">
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3265.141845703125</v>
+        <v>3265.14208984375</v>
       </c>
       <c r="C53" t="n">
-        <v>0.006630341156949561</v>
+        <v>0.006630415928775034</v>
       </c>
     </row>
     <row r="54">
@@ -1400,7 +1400,7 @@
         <v>3252.85400390625</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.003770440067042453</v>
+        <v>-0.003770514838867818</v>
       </c>
     </row>
     <row r="55">
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3244.301513671875</v>
+        <v>3244.3017578125</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.002632689074795407</v>
+        <v>-0.002632613822660306</v>
       </c>
     </row>
     <row r="56">
@@ -1426,7 +1426,7 @@
         <v>3329.28466796875</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02585738953026409</v>
+        <v>0.02585731427812909</v>
       </c>
     </row>
     <row r="57">
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3283.180908203125</v>
+        <v>3283.1806640625</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.01394472495189057</v>
+        <v>-0.01394479931289623</v>
       </c>
     </row>
     <row r="58">
@@ -1452,7 +1452,7 @@
         <v>3299.7939453125</v>
       </c>
       <c r="C58" t="n">
-        <v>0.00504728416779177</v>
+        <v>0.005047358528797459</v>
       </c>
     </row>
     <row r="59">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3411.31884765625</v>
+        <v>3411.318603515625</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.01039185494962814</v>
+        <v>-0.01039192651744245</v>
       </c>
     </row>
     <row r="65">
@@ -1543,7 +1543,7 @@
         <v>3418.544189453125</v>
       </c>
       <c r="C65" t="n">
-        <v>0.002115809483458168</v>
+        <v>0.002115881051272521</v>
       </c>
     </row>
     <row r="66">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3571.84814453125</v>
+        <v>3571.847900390625</v>
       </c>
       <c r="C66" t="n">
-        <v>0.04386836453091184</v>
+        <v>0.04386829617956439</v>
       </c>
     </row>
     <row r="67">
@@ -1569,7 +1569,7 @@
         <v>3582.6123046875</v>
       </c>
       <c r="C67" t="n">
-        <v>0.003009078980786699</v>
+        <v>0.003009147332134029</v>
       </c>
     </row>
     <row r="68">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3551.302978515625</v>
+        <v>3551.302734375</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.008777656014534604</v>
+        <v>-0.008777724761311501</v>
       </c>
     </row>
     <row r="69">
@@ -1595,7 +1595,7 @@
         <v>3580.400390625</v>
       </c>
       <c r="C69" t="n">
-        <v>0.008160062767979705</v>
+        <v>0.008160131514756626</v>
       </c>
     </row>
     <row r="70">
@@ -1605,10 +1605,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3614.560791015625</v>
+        <v>3614.560546875</v>
       </c>
       <c r="C70" t="n">
-        <v>0.009495716852642101</v>
+        <v>0.009495649308991045</v>
       </c>
     </row>
     <row r="71">
@@ -1618,10 +1618,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3578.82763671875</v>
+        <v>3578.827880859375</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.009935080964399304</v>
+        <v>-0.009934945202705419</v>
       </c>
     </row>
     <row r="72">
@@ -1634,7 +1634,7 @@
         <v>3560.198974609375</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.005218835957561974</v>
+        <v>-0.005218904175604713</v>
       </c>
     </row>
     <row r="73">
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3478.509033203125</v>
+        <v>3478.50927734375</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.02321267180070929</v>
+        <v>-0.0232126016152896</v>
       </c>
     </row>
     <row r="74">
@@ -1660,7 +1660,7 @@
         <v>3546.977294921875</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01949201131932109</v>
+        <v>0.01949194113390151</v>
       </c>
     </row>
     <row r="75">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3500.77490234375</v>
+        <v>3500.774658203125</v>
       </c>
       <c r="C76" t="n">
-        <v>0.006776294922956768</v>
+        <v>0.006776225183930267</v>
       </c>
     </row>
     <row r="77">
@@ -1699,7 +1699,7 @@
         <v>3442.284423828125</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.0168490169813279</v>
+        <v>-0.01684894724230148</v>
       </c>
     </row>
     <row r="78">
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3643.510986328125</v>
+        <v>3643.51123046875</v>
       </c>
       <c r="C82" t="n">
-        <v>0.009842080254561802</v>
+        <v>0.009842147261527835</v>
       </c>
     </row>
     <row r="83">
@@ -1777,7 +1777,7 @@
         <v>3700.035400390625</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0153946138312334</v>
+        <v>0.0153945468242674</v>
       </c>
     </row>
     <row r="84">
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3721.023193359375</v>
+        <v>3721.0234375</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.005952861504409866</v>
+        <v>-0.005952795893258222</v>
       </c>
     </row>
     <row r="91">
@@ -1881,7 +1881,7 @@
         <v>3689.516845703125</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.008503169087782337</v>
+        <v>-0.008503234698933933</v>
       </c>
     </row>
     <row r="92">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3458.652099609375</v>
+        <v>3458.65185546875</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.00922297889652334</v>
+        <v>-0.009223049484898955</v>
       </c>
     </row>
     <row r="97">
@@ -1959,7 +1959,7 @@
         <v>3551.40087890625</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02646319284222225</v>
+        <v>0.02646326343059795</v>
       </c>
     </row>
     <row r="98">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3538.4248046875</v>
+        <v>3538.425048828125</v>
       </c>
       <c r="C104" t="n">
-        <v>0.001445634193180395</v>
+        <v>0.001445703190157996</v>
       </c>
     </row>
     <row r="105">
@@ -2063,7 +2063,7 @@
         <v>3440.416748046875</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.02808904595414142</v>
+        <v>-0.02808911495111893</v>
       </c>
     </row>
     <row r="106">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3404.535888671875</v>
+        <v>3404.5361328125</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.01048398431055079</v>
+        <v>-0.01048391260015494</v>
       </c>
     </row>
     <row r="107">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3369.589111328125</v>
+        <v>3369.58935546875</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.01031781591617226</v>
+        <v>-0.01031781517244735</v>
       </c>
     </row>
     <row r="108">
@@ -2102,7 +2102,7 @@
         <v>3427.6865234375</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0170947391402144</v>
+        <v>0.01709466668609382</v>
       </c>
     </row>
     <row r="109">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>3392.19873046875</v>
+        <v>3392.198974609375</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.002850455460588671</v>
+        <v>-0.002850383489387793</v>
       </c>
     </row>
     <row r="116">
@@ -2206,7 +2206,7 @@
         <v>3382.565185546875</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.002843951917544948</v>
+        <v>-0.002844023888745886</v>
       </c>
     </row>
     <row r="117">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3524.564208984375</v>
+        <v>3524.56396484375</v>
       </c>
       <c r="C118" t="n">
-        <v>0.03535577420064904</v>
+        <v>0.0353557049323313</v>
       </c>
     </row>
     <row r="119">
@@ -2245,7 +2245,7 @@
         <v>3564.376953125</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01123247092106677</v>
+        <v>0.01123254018938458</v>
       </c>
     </row>
     <row r="120">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3590.0341796875</v>
+        <v>3590.033935546875</v>
       </c>
       <c r="C120" t="n">
-        <v>0.007172452373450765</v>
+        <v>0.007172384368350992</v>
       </c>
     </row>
     <row r="121">
@@ -2271,7 +2271,7 @@
         <v>3596.12890625</v>
       </c>
       <c r="C121" t="n">
-        <v>0.001696239829500669</v>
+        <v>0.001696307834600704</v>
       </c>
     </row>
     <row r="122">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3345.455810546875</v>
+        <v>3345.45556640625</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.1355292879341082</v>
+        <v>-0.1355293609109004</v>
       </c>
     </row>
     <row r="127">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3351.1572265625</v>
+        <v>3351.157470703125</v>
       </c>
       <c r="C127" t="n">
-        <v>0.001702776421934493</v>
+        <v>0.00170292225135647</v>
       </c>
     </row>
     <row r="128">
@@ -2362,7 +2362,7 @@
         <v>3423.45947265625</v>
       </c>
       <c r="C128" t="n">
-        <v>0.02134585457232059</v>
+        <v>0.02134578171969112</v>
       </c>
     </row>
     <row r="129">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3537.638671875</v>
+        <v>3537.638427734375</v>
       </c>
       <c r="C131" t="n">
-        <v>0.01538723583692948</v>
+        <v>0.01538716682461462</v>
       </c>
     </row>
     <row r="132">
@@ -2414,7 +2414,7 @@
         <v>3568.702392578125</v>
       </c>
       <c r="C132" t="n">
-        <v>0.008742591518945563</v>
+        <v>0.008742660531260247</v>
       </c>
     </row>
     <row r="133">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3640.807861328125</v>
+        <v>3640.8076171875</v>
       </c>
       <c r="C133" t="n">
-        <v>0.02000354269892043</v>
+        <v>0.02000347564220038</v>
       </c>
     </row>
     <row r="134">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3625.2265625</v>
+        <v>3625.226806640625</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.004288810595342078</v>
+        <v>-0.004288676193695499</v>
       </c>
     </row>
     <row r="135">
@@ -2453,7 +2453,7 @@
         <v>3626.602783203125</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0003795513253388216</v>
+        <v>0.0003794839804121851</v>
       </c>
     </row>
     <row r="136">
@@ -7218,10 +7218,10 @@
         <v>3598.39990234375</v>
       </c>
       <c r="C2" t="n">
-        <v>3754.926304466932</v>
+        <v>3754.926314090528</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4400212775199179</v>
+        <v>-0.4400212742716576</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -7237,10 +7237,10 @@
         <v>3574.89990234375</v>
       </c>
       <c r="C3" t="n">
-        <v>3740.703558528129</v>
+        <v>3740.703568090923</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7467677277097664</v>
+        <v>0.7467678212490227</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -7256,13 +7256,13 @@
         <v>3600.800048828125</v>
       </c>
       <c r="C4" t="n">
-        <v>3754.217337235013</v>
+        <v>3754.217346706791</v>
       </c>
       <c r="D4" t="n">
-        <v>1.925426409829697</v>
+        <v>1.925426595997578</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="5">
@@ -7275,10 +7275,10 @@
         <v>3592.60009765625</v>
       </c>
       <c r="C5" t="n">
-        <v>3748.493915814388</v>
+        <v>3748.493925218951</v>
       </c>
       <c r="D5" t="n">
-        <v>3.354716464797548</v>
+        <v>3.354716731429789</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -7294,10 +7294,10 @@
         <v>3553.60009765625</v>
       </c>
       <c r="C6" t="n">
-        <v>3726.090085514056</v>
+        <v>3726.090094837826</v>
       </c>
       <c r="D6" t="n">
-        <v>4.129037223980049</v>
+        <v>4.129037606456905</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -7313,10 +7313,10 @@
         <v>3529.60009765625</v>
       </c>
       <c r="C7" t="n">
-        <v>3712.617471262061</v>
+        <v>3712.61748046806</v>
       </c>
       <c r="D7" t="n">
-        <v>5.332500584077025</v>
+        <v>5.332501060511277</v>
       </c>
       <c r="E7" t="n">
         <v>4.547473508864641e-13</v>
@@ -7332,10 +7332,10 @@
         <v>3525</v>
       </c>
       <c r="C8" t="n">
-        <v>3709.265202241575</v>
+        <v>3709.265211357181</v>
       </c>
       <c r="D8" t="n">
-        <v>6.81389074236381</v>
+        <v>6.813891299220586</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -7351,13 +7351,13 @@
         <v>3550</v>
       </c>
       <c r="C9" t="n">
-        <v>3721.013019425836</v>
+        <v>3721.013028509665</v>
       </c>
       <c r="D9" t="n">
-        <v>8.059678777151248</v>
+        <v>8.059679429053176</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="10">
@@ -7370,13 +7370,13 @@
         <v>3539.699951171875</v>
       </c>
       <c r="C10" t="n">
-        <v>3714.598087800482</v>
+        <v>3714.598096787608</v>
       </c>
       <c r="D10" t="n">
-        <v>9.529724841184361</v>
+        <v>9.529725577439194</v>
       </c>
       <c r="E10" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -7389,13 +7389,13 @@
         <v>3579.800048828125</v>
       </c>
       <c r="C11" t="n">
-        <v>3734.783499952911</v>
+        <v>3734.783508894331</v>
       </c>
       <c r="D11" t="n">
-        <v>10.35573263847664</v>
+        <v>10.35573349599736</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -7408,10 +7408,10 @@
         <v>3586.199951171875</v>
       </c>
       <c r="C12" t="n">
-        <v>3737.173968852821</v>
+        <v>3737.173977711541</v>
       </c>
       <c r="D12" t="n">
-        <v>11.90457721611642</v>
+        <v>11.90457815800983</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7427,10 +7427,10 @@
         <v>3667.800048828125</v>
       </c>
       <c r="C13" t="n">
-        <v>3784.308502331392</v>
+        <v>3784.308510913193</v>
       </c>
       <c r="D13" t="n">
-        <v>10.44423365242892</v>
+        <v>10.44423483955143</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -7446,13 +7446,13 @@
         <v>3685.5</v>
       </c>
       <c r="C14" t="n">
-        <v>3794.376480409232</v>
+        <v>3794.376488824909</v>
       </c>
       <c r="D14" t="n">
-        <v>11.8631623487754</v>
+        <v>11.86316363217838</v>
       </c>
       <c r="E14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7465,13 +7465,13 @@
         <v>3686</v>
       </c>
       <c r="C15" t="n">
-        <v>3793.480948198332</v>
+        <v>3793.480956527105</v>
       </c>
       <c r="D15" t="n">
-        <v>13.42161989112492</v>
+        <v>13.42162126566063</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -7484,13 +7484,13 @@
         <v>3675.39990234375</v>
       </c>
       <c r="C16" t="n">
-        <v>3785.455542017708</v>
+        <v>3785.455550313465</v>
       </c>
       <c r="D16" t="n">
-        <v>14.94707444816822</v>
+        <v>14.94707591693259</v>
       </c>
       <c r="E16" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7503,10 +7503,10 @@
         <v>3644.5</v>
       </c>
       <c r="C17" t="n">
-        <v>3764.991933923632</v>
+        <v>3764.991942257622</v>
       </c>
       <c r="D17" t="n">
-        <v>16.10887887299191</v>
+        <v>16.10888045521074</v>
       </c>
       <c r="E17" t="n">
         <v>-4.547473508864641e-13</v>
@@ -7522,10 +7522,10 @@
         <v>3657.60009765625</v>
       </c>
       <c r="C18" t="n">
-        <v>3771.758730221542</v>
+        <v>3771.758738421815</v>
       </c>
       <c r="D18" t="n">
-        <v>17.67097873519765</v>
+        <v>17.67098041323084</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -7541,13 +7541,13 @@
         <v>3673.800048828125</v>
       </c>
       <c r="C19" t="n">
-        <v>3780.632059793764</v>
+        <v>3780.632067836211</v>
       </c>
       <c r="D19" t="n">
-        <v>19.19709445141416</v>
+        <v>19.19709622929759</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7560,13 +7560,13 @@
         <v>3644.39990234375</v>
       </c>
       <c r="C20" t="n">
-        <v>3761.072661215971</v>
+        <v>3761.072669288468</v>
       </c>
       <c r="D20" t="n">
-        <v>20.44186008461747</v>
+        <v>20.441861977592</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -7579,10 +7579,10 @@
         <v>3729.5</v>
       </c>
       <c r="C21" t="n">
-        <v>3814.834120415557</v>
+        <v>3814.834127943966</v>
       </c>
       <c r="D21" t="n">
-        <v>18.68450531082044</v>
+        <v>18.68450746941153</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -7598,13 +7598,13 @@
         <v>3688.39990234375</v>
       </c>
       <c r="C22" t="n">
-        <v>3786.040758686224</v>
+        <v>3786.040766383041</v>
       </c>
       <c r="D22" t="n">
-        <v>19.55983823195584</v>
+        <v>19.5598405254641</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="23">
@@ -7617,13 +7617,13 @@
         <v>3659</v>
       </c>
       <c r="C23" t="n">
-        <v>3766.001502306465</v>
+        <v>3766.001510052593</v>
       </c>
       <c r="D23" t="n">
-        <v>20.843840103415</v>
+        <v>20.84384251624715</v>
       </c>
       <c r="E23" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -7636,13 +7636,13 @@
         <v>3670.300048828125</v>
       </c>
       <c r="C24" t="n">
-        <v>3771.697906573555</v>
+        <v>3771.69791417637</v>
       </c>
       <c r="D24" t="n">
-        <v>22.5248181044617</v>
+        <v>22.52482061997898</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="25">
@@ -7655,10 +7655,10 @@
         <v>3733.10009765625</v>
       </c>
       <c r="C25" t="n">
-        <v>3811.951052386227</v>
+        <v>3811.951059504679</v>
       </c>
       <c r="D25" t="n">
-        <v>22.33249951915195</v>
+        <v>22.33250222936294</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -7674,13 +7674,13 @@
         <v>3737</v>
       </c>
       <c r="C26" t="n">
-        <v>3813.277516925776</v>
+        <v>3813.277523914813</v>
       </c>
       <c r="D26" t="n">
-        <v>24.00646006925717</v>
+        <v>24.00646288849839</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -7693,10 +7693,10 @@
         <v>3729.699951171875</v>
       </c>
       <c r="C27" t="n">
-        <v>3806.795918802143</v>
+        <v>3806.795925746125</v>
       </c>
       <c r="D27" t="n">
-        <v>25.6863196318177</v>
+        <v>25.68632256204319</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -7712,10 +7712,10 @@
         <v>3729.800048828125</v>
       </c>
       <c r="C28" t="n">
-        <v>3805.432045544801</v>
+        <v>3805.432052385778</v>
       </c>
       <c r="D28" t="n">
-        <v>27.41744231832308</v>
+        <v>27.41744535985026</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -7731,13 +7731,13 @@
         <v>3769.199951171875</v>
       </c>
       <c r="C29" t="n">
-        <v>3832.070047761807</v>
+        <v>3832.070054166255</v>
       </c>
       <c r="D29" t="n">
-        <v>28.388112618793</v>
+        <v>28.38811580586525</v>
       </c>
       <c r="E29" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -7750,13 +7750,13 @@
         <v>3784</v>
       </c>
       <c r="C30" t="n">
-        <v>3841.593660592719</v>
+        <v>3841.593666748486</v>
       </c>
       <c r="D30" t="n">
-        <v>29.95086579056579</v>
+        <v>29.95086910148211</v>
       </c>
       <c r="E30" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -7769,13 +7769,13 @@
         <v>3769.5</v>
       </c>
       <c r="C31" t="n">
-        <v>3829.423913671892</v>
+        <v>3829.423919854328</v>
       </c>
       <c r="D31" t="n">
-        <v>31.54915492118607</v>
+        <v>31.54915835687552</v>
       </c>
       <c r="E31" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7788,13 +7788,13 @@
         <v>3744.300048828125</v>
       </c>
       <c r="C32" t="n">
-        <v>3809.697422076444</v>
+        <v>3809.697428372352</v>
       </c>
       <c r="D32" t="n">
-        <v>33.0160470937094</v>
+        <v>33.01605066144248</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -7807,13 +7807,13 @@
         <v>3828.699951171875</v>
       </c>
       <c r="C33" t="n">
-        <v>3871.784559859444</v>
+        <v>3871.784565203486</v>
       </c>
       <c r="D33" t="n">
-        <v>31.34263651854781</v>
+        <v>31.34264033017962</v>
       </c>
       <c r="E33" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="34">
@@ -7826,10 +7826,10 @@
         <v>3861.800048828125</v>
       </c>
       <c r="C34" t="n">
-        <v>3897.118887032131</v>
+        <v>3897.118891878907</v>
       </c>
       <c r="D34" t="n">
-        <v>32.39911521319209</v>
+        <v>32.39911916987921</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -7845,13 +7845,13 @@
         <v>3839.39990234375</v>
       </c>
       <c r="C35" t="n">
-        <v>3877.587020548035</v>
+        <v>3877.587025525312</v>
       </c>
       <c r="D35" t="n">
-        <v>33.74817170044207</v>
+        <v>33.74817579795581</v>
       </c>
       <c r="E35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -7864,10 +7864,10 @@
         <v>3872.699951171875</v>
       </c>
       <c r="C36" t="n">
-        <v>3903.554194217014</v>
+        <v>3903.554198680525</v>
       </c>
       <c r="D36" t="n">
-        <v>34.78447255309993</v>
+        <v>34.78447679941564</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -7883,10 +7883,10 @@
         <v>3888.199951171875</v>
       </c>
       <c r="C37" t="n">
-        <v>3915.328771521706</v>
+        <v>3915.328775669992</v>
       </c>
       <c r="D37" t="n">
-        <v>36.10452125321581</v>
+        <v>36.10452564580237</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -7902,13 +7902,13 @@
         <v>3918.699951171875</v>
       </c>
       <c r="C38" t="n">
-        <v>3940.379436618948</v>
+        <v>3940.379440271714</v>
       </c>
       <c r="D38" t="n">
-        <v>37.0848435015514</v>
+        <v>37.08484804217187</v>
       </c>
       <c r="E38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7921,13 +7921,13 @@
         <v>3904.89990234375</v>
       </c>
       <c r="C39" t="n">
-        <v>3927.207999696263</v>
+        <v>3927.208003373102</v>
       </c>
       <c r="D39" t="n">
-        <v>38.35160006163505</v>
+        <v>38.35160475299926</v>
       </c>
       <c r="E39" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7940,13 +7940,13 @@
         <v>3923.800048828125</v>
       </c>
       <c r="C40" t="n">
-        <v>3942.579022285403</v>
+        <v>3942.579025599706</v>
       </c>
       <c r="D40" t="n">
-        <v>39.5022823379004</v>
+        <v>39.50228718173094</v>
       </c>
       <c r="E40" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="41">
@@ -7959,10 +7959,10 @@
         <v>3972.800048828125</v>
       </c>
       <c r="C41" t="n">
-        <v>3985.590114567627</v>
+        <v>3985.590117189731</v>
       </c>
       <c r="D41" t="n">
-        <v>39.87063490550872</v>
+        <v>39.87063988477166</v>
       </c>
       <c r="E41" t="n">
         <v>-4.547473508864641e-13</v>
@@ -7978,10 +7978,10 @@
         <v>3958.10009765625</v>
       </c>
       <c r="C42" t="n">
-        <v>3971.216304225949</v>
+        <v>3971.216306865563</v>
       </c>
       <c r="D42" t="n">
-        <v>40.90187700301431</v>
+        <v>40.90188213500505</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -7997,13 +7997,13 @@
         <v>3987.5</v>
       </c>
       <c r="C43" t="n">
-        <v>3997.329063597164</v>
+        <v>3997.329065784576</v>
       </c>
       <c r="D43" t="n">
-        <v>41.64984323441377</v>
+        <v>41.64984850959763</v>
       </c>
       <c r="E43" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -8016,10 +8016,10 @@
         <v>4030.89990234375</v>
       </c>
       <c r="C44" t="n">
-        <v>4037.334928436356</v>
+        <v>4037.334930079363</v>
       </c>
       <c r="D44" t="n">
-        <v>42.02830223670117</v>
+        <v>42.02830762954409</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -8035,13 +8035,13 @@
         <v>3980.5</v>
       </c>
       <c r="C45" t="n">
-        <v>3989.088458794878</v>
+        <v>3989.088460765704</v>
       </c>
       <c r="D45" t="n">
-        <v>42.46881352899527</v>
+        <v>42.46881904043903</v>
       </c>
       <c r="E45" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -8054,10 +8054,10 @@
         <v>3924.39990234375</v>
       </c>
       <c r="C46" t="n">
-        <v>3936.394160155412</v>
+        <v>3936.394162560152</v>
       </c>
       <c r="D46" t="n">
-        <v>42.86474846551391</v>
+        <v>42.86475410583444</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>3924.39990234375</v>
       </c>
       <c r="C47" t="n">
-        <v>3935.300852491341</v>
+        <v>3935.300854735425</v>
       </c>
       <c r="D47" t="n">
-        <v>44.05616167664084</v>
+        <v>44.05616748984494</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="48">
@@ -8092,13 +8092,13 @@
         <v>3881.60009765625</v>
       </c>
       <c r="C48" t="n">
-        <v>3895.449519051466</v>
+        <v>3895.449521609253</v>
       </c>
       <c r="D48" t="n">
-        <v>44.88204628272752</v>
+        <v>44.88205225889851</v>
       </c>
       <c r="E48" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="49">
@@ -8111,10 +8111,10 @@
         <v>3882.5</v>
       </c>
       <c r="C49" t="n">
-        <v>3894.953329954355</v>
+        <v>3894.953332327233</v>
       </c>
       <c r="D49" t="n">
-        <v>46.29476936385981</v>
+        <v>46.2947755272553</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -8130,13 +8130,13 @@
         <v>3918.5</v>
       </c>
       <c r="C50" t="n">
-        <v>3926.644540981359</v>
+        <v>3926.644542786723</v>
       </c>
       <c r="D50" t="n">
-        <v>47.04232950209325</v>
+        <v>47.0423358337498</v>
       </c>
       <c r="E50" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -8149,13 +8149,13 @@
         <v>3955</v>
       </c>
       <c r="C51" t="n">
-        <v>3959.995242037787</v>
+        <v>3959.995243330459</v>
       </c>
       <c r="D51" t="n">
-        <v>47.61103417333561</v>
+        <v>47.6110406540306</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="52">
@@ -8168,10 +8168,10 @@
         <v>3954.60009765625</v>
       </c>
       <c r="C52" t="n">
-        <v>3958.814988257403</v>
+        <v>3958.814989394262</v>
       </c>
       <c r="D52" t="n">
-        <v>48.46986189854124</v>
+        <v>48.46986854848865</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -8187,10 +8187,10 @@
         <v>4002.5</v>
       </c>
       <c r="C53" t="n">
-        <v>4004.505209396847</v>
+        <v>4004.505210057341</v>
       </c>
       <c r="D53" t="n">
-        <v>48.63201495139811</v>
+        <v>48.63202169622309</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -8206,10 +8206,10 @@
         <v>4004.39990234375</v>
       </c>
       <c r="C54" t="n">
-        <v>4005.902380262847</v>
+        <v>4005.902380789463</v>
       </c>
       <c r="D54" t="n">
-        <v>49.1245550712456</v>
+        <v>49.12456194630659</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -8225,10 +8225,10 @@
         <v>4027.699951171875</v>
       </c>
       <c r="C55" t="n">
-        <v>4028.49848923638</v>
+        <v>4028.498489557234</v>
       </c>
       <c r="D55" t="n">
-        <v>49.41780920389192</v>
+        <v>49.41781617519337</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -8244,13 +8244,13 @@
         <v>3999.60009765625</v>
       </c>
       <c r="C56" t="n">
-        <v>4000.417625990127</v>
+        <v>4000.417626312885</v>
       </c>
       <c r="D56" t="n">
-        <v>49.73525667083277</v>
+        <v>49.73526374347057</v>
       </c>
       <c r="E56" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="57">
@@ -8263,10 +8263,10 @@
         <v>4019.60009765625</v>
       </c>
       <c r="C57" t="n">
-        <v>4019.979199291909</v>
+        <v>4019.979199465589</v>
       </c>
       <c r="D57" t="n">
-        <v>49.95633886013547</v>
+        <v>49.95634601340271</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -8282,13 +8282,13 @@
         <v>4037.39990234375</v>
       </c>
       <c r="C58" t="n">
-        <v>4037.550777423734</v>
+        <v>4037.550777504591</v>
       </c>
       <c r="D58" t="n">
-        <v>50.09018082754665</v>
+        <v>50.09018803627669</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="59">
@@ -8301,13 +8301,13 @@
         <v>4024.89990234375</v>
       </c>
       <c r="C59" t="n">
-        <v>4024.988504780816</v>
+        <v>4024.988504832001</v>
       </c>
       <c r="D59" t="n">
-        <v>50.20317387645218</v>
+        <v>50.20318113378562</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="60">
@@ -8320,13 +8320,13 @@
         <v>4013.300048828125</v>
       </c>
       <c r="C60" t="n">
-        <v>4013.341894819231</v>
+        <v>4013.341894845964</v>
       </c>
       <c r="D60" t="n">
-        <v>50.28574610000487</v>
+        <v>50.28575339508598</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="61">
@@ -8339,13 +8339,13 @@
         <v>3996.699951171875</v>
       </c>
       <c r="C61" t="n">
-        <v>3996.716219374401</v>
+        <v>3996.716219386066</v>
       </c>
       <c r="D61" t="n">
-        <v>50.34144713413434</v>
+        <v>50.34145445591139</v>
       </c>
       <c r="E61" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="62">
@@ -8358,10 +8358,10 @@
         <v>4062</v>
       </c>
       <c r="C62" t="n">
-        <v>4062.000139498587</v>
+        <v>4062.000139498749</v>
       </c>
       <c r="D62" t="n">
-        <v>50.33890569742562</v>
+        <v>50.33891301337826</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -8377,10 +8377,10 @@
         <v>4081.300048828125</v>
       </c>
       <c r="C63" t="n">
-        <v>4081.300049042105</v>
+        <v>4081.300049042106</v>
       </c>
       <c r="D63" t="n">
-        <v>50.35092451995706</v>
+        <v>50.35093183769914</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -8399,7 +8399,7 @@
         <v>4069.60009765625</v>
       </c>
       <c r="D64" t="n">
-        <v>50.36291464778287</v>
+        <v>50.36292196726799</v>
       </c>
       <c r="E64" t="n">
         <v>-4.547473508864641e-13</v>
@@ -8448,10 +8448,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>210.0995972016092</v>
+        <v>210.0996068252052</v>
       </c>
       <c r="C2" t="n">
-        <v>3754.926304466932</v>
+        <v>3754.926314090528</v>
       </c>
     </row>
     <row r="3">
@@ -8474,10 +8474,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-210.0995972016092</v>
+        <v>-210.0996068252052</v>
       </c>
       <c r="C4" t="n">
-        <v>314.6737931893176</v>
+        <v>314.6737835657218</v>
       </c>
     </row>
     <row r="5">
@@ -8490,7 +8490,7 @@
         <v>-100</v>
       </c>
       <c r="C5" t="n">
-        <v>8.380292119581032</v>
+        <v>8.380291841810434</v>
       </c>
     </row>
   </sheetData>
@@ -8566,7 +8566,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D2" t="n">
         <v>4069.60009765625</v>
@@ -8578,7 +8578,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>25.39758289676531</v>
+        <v>25.39758374955786</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>108.8357409173448</v>
+        <v>108.8357448922532</v>
       </c>
       <c r="D3" t="n">
         <v>4069.60009765625</v>
@@ -8608,7 +8608,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>25.39758289676531</v>
+        <v>25.39758374955786</v>
       </c>
       <c r="H3" t="n">
         <v>6</v>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>129.0140328844778</v>
+        <v>129.0140368554139</v>
       </c>
       <c r="D4" t="n">
         <v>4069.60009765625</v>
@@ -8638,7 +8638,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>25.39758289676531</v>
+        <v>25.39758374955786</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
@@ -8656,7 +8656,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>108.716817720032</v>
+        <v>108.7168216909682</v>
       </c>
       <c r="D5" t="n">
         <v>4069.60009765625</v>
@@ -8668,7 +8668,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>25.39758289676531</v>
+        <v>25.39758374955786</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
@@ -8725,16 +8725,16 @@
         <v>3255.680078125</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001647910469285998</v>
+        <v>0.001647911006978043</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.998352089530714</v>
+        <v>-0.998352088993022</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1108846617828272</v>
+        <v>0.1108847043935022</v>
       </c>
       <c r="E2" t="n">
-        <v>793.7336890285096</v>
+        <v>793.7336890711204</v>
       </c>
     </row>
     <row r="3">
@@ -8742,16 +8742,16 @@
         <v>3272.122906802399</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002052383053884239</v>
+        <v>0.002052383695362659</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9979476169461158</v>
+        <v>-0.9979476163046374</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1411985848111854</v>
+        <v>0.1411986370961795</v>
       </c>
       <c r="E3" t="n">
-        <v>777.3211742741387</v>
+        <v>777.3211743264242</v>
       </c>
     </row>
     <row r="4">
@@ -8759,16 +8759,16 @@
         <v>3288.565735479798</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002542275176274653</v>
+        <v>0.002542275936909478</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9974577248237253</v>
+        <v>-0.9974577240630905</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1788464929541149</v>
+        <v>0.1788465567444764</v>
       </c>
       <c r="E4" t="n">
-        <v>760.9159935048833</v>
+        <v>760.9159935686735</v>
       </c>
     </row>
     <row r="5">
@@ -8776,16 +8776,16 @@
         <v>3305.008564157197</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003132302729658884</v>
+        <v>0.0031323036261431</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9968676972703411</v>
+        <v>-0.9968676963738569</v>
       </c>
       <c r="D5" t="n">
-        <v>0.225351477568621</v>
+        <v>0.2253515549590883</v>
       </c>
       <c r="E5" t="n">
-        <v>744.5196698120985</v>
+        <v>744.5196698894893</v>
       </c>
     </row>
     <row r="6">
@@ -8793,16 +8793,16 @@
         <v>3321.451392834596</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003839008902388822</v>
+        <v>0.003839009952672929</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9961609910976111</v>
+        <v>-0.9961609900473271</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2824934848156246</v>
+        <v>0.2824935781858375</v>
       </c>
       <c r="E6" t="n">
-        <v>728.1339831419468</v>
+        <v>728.1339832353169</v>
       </c>
     </row>
     <row r="7">
@@ -8810,16 +8810,16 @@
         <v>3337.894221511995</v>
       </c>
       <c r="B7" t="n">
-        <v>0.004680857333609048</v>
+        <v>0.004680858556796098</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.995319142666391</v>
+        <v>-0.9953191414432039</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3523401510764099</v>
+        <v>0.3523402631108752</v>
       </c>
       <c r="E7" t="n">
-        <v>711.7610011308088</v>
+        <v>711.7610012428431</v>
       </c>
     </row>
     <row r="8">
@@ -8827,16 +8827,16 @@
         <v>3354.337050189394</v>
       </c>
       <c r="B8" t="n">
-        <v>0.005678305742350774</v>
+        <v>0.005678307158548486</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9943216942576493</v>
+        <v>-0.9943216928414516</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4372790158223303</v>
+        <v>0.4372791495281341</v>
       </c>
       <c r="E8" t="n">
-        <v>695.4031113181554</v>
+        <v>695.4031114518616</v>
       </c>
     </row>
     <row r="9">
@@ -8844,16 +8844,16 @@
         <v>3370.779878866793</v>
       </c>
       <c r="B9" t="n">
-        <v>0.006853855430445576</v>
+        <v>0.006853857060572986</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9931461445695544</v>
+        <v>-0.993146142939427</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5400507531388072</v>
+        <v>0.5400509118605363</v>
       </c>
       <c r="E9" t="n">
-        <v>679.063054378073</v>
+        <v>679.0630545367944</v>
       </c>
     </row>
     <row r="10">
@@ -8861,16 +8861,16 @@
         <v>3387.222707544192</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008232072061563891</v>
+        <v>0.008232073927111108</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9917679279384362</v>
+        <v>-0.9917679260728889</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6637829873048346</v>
+        <v>0.6637831747362561</v>
       </c>
       <c r="E10" t="n">
-        <v>662.7439579348397</v>
+        <v>662.7439581222711</v>
       </c>
     </row>
     <row r="11">
@@ -8878,16 +8878,16 @@
         <v>3403.665536221591</v>
       </c>
       <c r="B11" t="n">
-        <v>0.009839573263057396</v>
+        <v>0.009839575385798176</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9901604267369426</v>
+        <v>-0.9901604246142018</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8120241832131327</v>
+        <v>0.8120244034040169</v>
       </c>
       <c r="E11" t="n">
-        <v>646.4493704533493</v>
+        <v>646.4493706735407</v>
       </c>
     </row>
     <row r="12">
@@ -8895,16 +8895,16 @@
         <v>3420.10836489899</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01170497889574114</v>
+        <v>0.01170498129739946</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.9882950211042588</v>
+        <v>-0.9882950187026005</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9887770314254851</v>
+        <v>0.9887772887837798</v>
       </c>
       <c r="E12" t="n">
-        <v>630.183294624163</v>
+        <v>630.1832948815209</v>
       </c>
     </row>
     <row r="13">
@@ -8912,16 +8912,16 @@
         <v>3436.551193576389</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01385882029612854</v>
+        <v>0.01385882299800185</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9861411797038715</v>
+        <v>-0.9861411770019981</v>
       </c>
       <c r="D13" t="n">
-        <v>1.198530682897903</v>
+        <v>1.198530982185709</v>
       </c>
       <c r="E13" t="n">
-        <v>613.9502195982359</v>
+        <v>613.9502198975242</v>
       </c>
     </row>
     <row r="14">
@@ -8929,16 +8929,16 @@
         <v>3452.994022253788</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01633340541721634</v>
+        <v>0.01633340843975976</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.9836665945827837</v>
+        <v>-0.9836665915602403</v>
       </c>
       <c r="D14" t="n">
-        <v>1.446291132530114</v>
+        <v>1.446291478853517</v>
       </c>
       <c r="E14" t="n">
-        <v>597.7551513704689</v>
+        <v>597.7551517167931</v>
       </c>
     </row>
     <row r="15">
@@ -8946,16 +8946,16 @@
         <v>3469.436850931187</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01916263757287392</v>
+        <v>0.01916264093525134</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.980837362427126</v>
+        <v>-0.9808373590647487</v>
       </c>
       <c r="D15" t="n">
-        <v>1.737609006351676</v>
+        <v>1.737609405142919</v>
       </c>
       <c r="E15" t="n">
-        <v>581.603640566892</v>
+        <v>581.6036409656831</v>
       </c>
     </row>
     <row r="16">
@@ -8963,16 +8963,16 @@
         <v>3485.879679608586</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02238178641595999</v>
+        <v>0.02238179013556956</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.97761821358404</v>
+        <v>-0.9776182098644305</v>
       </c>
       <c r="D16" t="n">
-        <v>2.078603976829783</v>
+        <v>2.078604433822633</v>
       </c>
       <c r="E16" t="n">
-        <v>565.5018068599711</v>
+        <v>565.5018073169635</v>
       </c>
     </row>
     <row r="17">
@@ -8980,16 +8980,16 @@
         <v>3502.322508285985</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02602721083374508</v>
+        <v>0.02602721492572807</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.973972789166255</v>
+        <v>-0.9739727850742719</v>
       </c>
       <c r="D17" t="n">
-        <v>2.475985016766245</v>
+        <v>2.475985537962359</v>
       </c>
       <c r="E17" t="n">
-        <v>549.4563592225086</v>
+        <v>549.4563597437045</v>
       </c>
     </row>
     <row r="18">
@@ -8997,16 +8997,16 @@
         <v>3518.765336963384</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03013603460209968</v>
+        <v>0.03013603907884312</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9698639653979003</v>
+        <v>-0.9698639609211569</v>
       </c>
       <c r="D18" t="n">
-        <v>2.937065706437977</v>
+        <v>2.937066298066441</v>
       </c>
       <c r="E18" t="n">
-        <v>533.4746112347816</v>
+        <v>533.4746118264097</v>
       </c>
     </row>
     <row r="19">
@@ -9014,16 +9014,16 @@
         <v>3535.208165640783</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03474577687260771</v>
+        <v>0.03474578174325219</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9652542231273923</v>
+        <v>-0.9652542182567478</v>
       </c>
       <c r="D19" t="n">
-        <v>3.469773832529469</v>
+        <v>3.469774500996479</v>
       </c>
       <c r="E19" t="n">
-        <v>517.5644906834737</v>
+        <v>517.5644913519409</v>
       </c>
     </row>
     <row r="20">
@@ -9031,16 +9031,16 @@
         <v>3551.650994318182</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03989394083984595</v>
+        <v>0.039893946109811</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.960106059160154</v>
+        <v>-0.960106053890189</v>
       </c>
       <c r="D20" t="n">
-        <v>4.082654561944167</v>
+        <v>4.082655313776598</v>
       </c>
       <c r="E20" t="n">
-        <v>501.7345427354894</v>
+        <v>501.7345434873223</v>
       </c>
     </row>
     <row r="21">
@@ -9048,16 +9048,16 @@
         <v>3568.093822995581</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04561756521136193</v>
+        <v>0.04561757088190166</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.954382434788638</v>
+        <v>-0.9543824291180983</v>
       </c>
       <c r="D21" t="n">
-        <v>4.784866539133219</v>
+        <v>4.784867380913596</v>
       </c>
       <c r="E21" t="n">
-        <v>485.9939260352799</v>
+        <v>485.9939268770599</v>
       </c>
     </row>
     <row r="22">
@@ -9065,16 +9065,16 @@
         <v>3584.53665167298</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05195274433983273</v>
+        <v>0.05195275040763465</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9480472556601672</v>
+        <v>-0.9480472495923653</v>
       </c>
       <c r="D22" t="n">
-        <v>5.586170341833025</v>
+        <v>5.586171280126848</v>
       </c>
       <c r="E22" t="n">
-        <v>470.3524011605805</v>
+        <v>470.3524020988743</v>
       </c>
     </row>
     <row r="23">
@@ -9082,16 +9082,16 @@
         <v>3600.979480350379</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05893412403403402</v>
+        <v>0.05893413049087412</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.941065875965966</v>
+        <v>-0.9410658695091259</v>
       </c>
       <c r="D23" t="n">
-        <v>6.496908836103216</v>
+        <v>6.496909877381967</v>
       </c>
       <c r="E23" t="n">
-        <v>454.8203109774508</v>
+        <v>454.8203120187304</v>
       </c>
     </row>
     <row r="24">
@@ -9099,16 +9099,16 @@
         <v>3617.422309027778</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06659438110178786</v>
+        <v>0.0665943879342533</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.9334056188982122</v>
+        <v>-0.9334056120657467</v>
       </c>
       <c r="D24" t="n">
-        <v>7.527979095644667</v>
+        <v>7.527980246202532</v>
       </c>
       <c r="E24" t="n">
-        <v>439.4085525595938</v>
+        <v>439.4085537101523</v>
       </c>
     </row>
     <row r="25">
@@ -9116,16 +9116,16 @@
         <v>3633.865137705177</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07496369555553536</v>
+        <v>0.07496370274482626</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.9250363044444646</v>
+        <v>-0.9250362972551738</v>
       </c>
       <c r="D25" t="n">
-        <v>8.690795690250241</v>
+        <v>8.690796956115946</v>
       </c>
       <c r="E25" t="n">
-        <v>424.1285404768005</v>
+        <v>424.1285417426661</v>
       </c>
     </row>
     <row r="26">
@@ -9133,16 +9133,16 @@
         <v>3650.307966382576</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08406922509495851</v>
+        <v>0.0840692326167784</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.9159307749050415</v>
+        <v>-0.9159307673832215</v>
       </c>
       <c r="D26" t="n">
-        <v>9.99724530099212</v>
+        <v>9.997246687841312</v>
       </c>
       <c r="E26" t="n">
-        <v>408.9921614101431</v>
+        <v>408.9921627969925</v>
       </c>
     </row>
     <row r="27">
@@ -9150,16 +9150,16 @@
         <v>3666.750795059975</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09393459194193082</v>
+        <v>0.09393459976647256</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.9060654080580692</v>
+        <v>-0.9060654002335274</v>
       </c>
       <c r="D27" t="n">
-        <v>11.45963278195529</v>
+        <v>11.45963429501796</v>
       </c>
       <c r="E27" t="n">
-        <v>394.0117202137076</v>
+        <v>394.0117217267707</v>
       </c>
     </row>
     <row r="28">
@@ -9167,16 +9167,16 @@
         <v>3683.193623737374</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1045793923182975</v>
+        <v>0.1045794004103318</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.8954206076817024</v>
+        <v>-0.8954205995896682</v>
       </c>
       <c r="D28" t="n">
-        <v>13.09061895610517</v>
+        <v>13.09062060007636</v>
       </c>
       <c r="E28" t="n">
-        <v>379.1998777104591</v>
+        <v>379.1998793544299</v>
       </c>
     </row>
     <row r="29">
@@ -9184,16 +9184,16 @@
         <v>3699.636452414773</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1160187388115738</v>
+        <v>0.1160187471306409</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.8839812611884261</v>
+        <v>-0.8839812528693591</v>
       </c>
       <c r="D29" t="n">
-        <v>14.90315060207519</v>
+        <v>14.90315238102738</v>
       </c>
       <c r="E29" t="n">
-        <v>364.56958067903</v>
+        <v>364.5695824579821</v>
       </c>
     </row>
     <row r="30">
@@ -9201,16 +9201,16 @@
         <v>3716.079281092172</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1282628455608914</v>
+        <v>0.1282628540616</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.8717371544391086</v>
+        <v>-0.8717371459384</v>
       </c>
       <c r="D30" t="n">
-        <v>16.91038325491809</v>
+        <v>16.91038517221847</v>
       </c>
       <c r="E30" t="n">
-        <v>350.1339846544734</v>
+        <v>350.1339865717732</v>
       </c>
     </row>
     <row r="31">
@@ -9218,16 +9218,16 @@
         <v>3732.522109769571</v>
       </c>
       <c r="B31" t="n">
-        <v>0.141316665617469</v>
+        <v>0.1413166742498971</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.858683334382531</v>
+        <v>-0.858683325750103</v>
       </c>
       <c r="D31" t="n">
-        <v>19.1255976027802</v>
+        <v>19.12559966101026</v>
       </c>
       <c r="E31" t="n">
-        <v>335.9063703249367</v>
+        <v>335.9063723831664</v>
       </c>
     </row>
     <row r="32">
@@ -9235,16 +9235,16 @@
         <v>3748.96493844697</v>
       </c>
       <c r="B32" t="n">
-        <v>0.155179589001358</v>
+        <v>0.1551795977115523</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.8448204109986419</v>
+        <v>-0.8448204022884477</v>
       </c>
       <c r="D32" t="n">
-        <v>21.56211040875814</v>
+        <v>21.56211260964574</v>
       </c>
       <c r="E32" t="n">
-        <v>321.9000544535156</v>
+        <v>321.9000566544037</v>
       </c>
     </row>
     <row r="33">
@@ -9252,16 +9252,16 @@
         <v>3765.407767124369</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1698452089084984</v>
+        <v>0.1698452176390655</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.8301547910915016</v>
+        <v>-0.8301547823609345</v>
       </c>
       <c r="D33" t="n">
-        <v>24.23318101886787</v>
+        <v>24.23318336322393</v>
       </c>
       <c r="E33" t="n">
-        <v>308.1282963862268</v>
+        <v>308.1282987305826</v>
       </c>
     </row>
     <row r="34">
@@ -9269,16 +9269,16 @@
         <v>3781.850595801768</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1853011622463473</v>
+        <v>0.1853011709371254</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.8146988377536527</v>
+        <v>-0.8146988290628746</v>
       </c>
       <c r="D34" t="n">
-        <v>27.15191462936298</v>
+        <v>27.15191711703176</v>
       </c>
       <c r="E34" t="n">
-        <v>294.6042013193228</v>
+        <v>294.6042038069913</v>
       </c>
     </row>
     <row r="35">
@@ -9286,16 +9286,16 @@
         <v>3798.293424479167</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2015290492264208</v>
+        <v>0.2015290578152211</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.7984709507735792</v>
+        <v>-0.7984709421847789</v>
       </c>
       <c r="D35" t="n">
-        <v>30.33116357654797</v>
+        <v>30.33116620636497</v>
       </c>
       <c r="E35" t="n">
-        <v>281.3406215891082</v>
+        <v>281.3406242189262</v>
       </c>
     </row>
     <row r="36">
@@ -9303,16 +9303,16 @@
         <v>3814.736253156566</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2185044351577135</v>
+        <v>0.2185044435811167</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.7814955648422865</v>
+        <v>-0.7814955564188832</v>
       </c>
       <c r="D36" t="n">
-        <v>33.78342797709706</v>
+        <v>33.78343074686552</v>
       </c>
       <c r="E36" t="n">
-        <v>268.3500573122578</v>
+        <v>268.3500600820275</v>
       </c>
     </row>
     <row r="37">
@@ -9320,16 +9320,16 @@
         <v>3831.179081833965</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2361969359098673</v>
+        <v>0.2361969441040604</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.7638030640901328</v>
+        <v>-0.7638030558959396</v>
       </c>
       <c r="D37" t="n">
-        <v>37.52075708490293</v>
+        <v>37.52075999137901</v>
       </c>
       <c r="E37" t="n">
-        <v>255.6445577426657</v>
+        <v>255.644560649142</v>
       </c>
     </row>
     <row r="38">
@@ -9337,16 +9337,16 @@
         <v>3847.621910511364</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2545703867957125</v>
+        <v>0.2545703946973484</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.7454296132042875</v>
+        <v>-0.7454296053026517</v>
       </c>
       <c r="D38" t="n">
-        <v>41.55465274053597</v>
+        <v>41.55465577942857</v>
       </c>
       <c r="E38" t="n">
-        <v>243.2356247208995</v>
+        <v>243.2356277597919</v>
       </c>
     </row>
     <row r="39">
@@ -9354,16 +9354,16 @@
         <v>3864.064739188763</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2735830929068248</v>
+        <v>0.2735831004538875</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.7264169070931752</v>
+        <v>-0.7264168995461125</v>
       </c>
       <c r="D39" t="n">
-        <v>45.89597627111971</v>
+        <v>45.89597943710669</v>
       </c>
       <c r="E39" t="n">
-        <v>231.1341195740843</v>
+        <v>231.1341227400708</v>
       </c>
     </row>
     <row r="40">
@@ -9371,16 +9371,16 @@
         <v>3880.507567866161</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2931881572699488</v>
+        <v>0.2931881644026085</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.7068118427300512</v>
+        <v>-0.7068118355973915</v>
       </c>
       <c r="D40" t="n">
-        <v>50.55486015231259</v>
+        <v>50.5548634390675</v>
       </c>
       <c r="E40" t="n">
-        <v>219.3501747778787</v>
+        <v>219.3501780646329</v>
       </c>
     </row>
     <row r="41">
@@ -9388,16 +9388,16 @@
         <v>3896.950396543561</v>
       </c>
       <c r="B41" t="n">
-        <v>0.313333881621115</v>
+        <v>0.3133338882825533</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.686666118378885</v>
+        <v>-0.6866661117174466</v>
       </c>
       <c r="D41" t="n">
-        <v>55.54062567128085</v>
+        <v>55.5406290715182</v>
       </c>
       <c r="E41" t="n">
-        <v>207.8931116194476</v>
+        <v>207.8931150196854</v>
       </c>
     </row>
     <row r="42">
@@ -9405,16 +9405,16 @@
         <v>3913.39322522096</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3339642331590011</v>
+        <v>0.333964239296192</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.6660357668409989</v>
+        <v>-0.666035760703808</v>
       </c>
       <c r="D42" t="n">
-        <v>60.86170773198501</v>
+        <v>60.86171123751501</v>
       </c>
       <c r="E42" t="n">
-        <v>196.7713650027526</v>
+        <v>196.7713685082831</v>
       </c>
     </row>
     <row r="43">
@@ -9422,16 +9422,16 @@
         <v>3929.836053898359</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3550193693756056</v>
+        <v>0.3550193749400354</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.6449806306243944</v>
+        <v>-0.6449806250599646</v>
       </c>
       <c r="D43" t="n">
-        <v>66.52558782429628</v>
+        <v>66.52559142609311</v>
       </c>
       <c r="E43" t="n">
-        <v>185.992416417665</v>
+        <v>185.9924200194614</v>
       </c>
     </row>
     <row r="44">
@@ -9439,16 +9439,16 @@
         <v>3946.278882575758</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3764362120005424</v>
+        <v>0.3764362169488563</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.6235637879994576</v>
+        <v>-0.6235637830511437</v>
       </c>
       <c r="D44" t="n">
-        <v>72.53873603951274</v>
+        <v>72.53873972779479</v>
       </c>
       <c r="E44" t="n">
-        <v>175.5627359554824</v>
+        <v>175.5627396437644</v>
       </c>
     </row>
     <row r="45">
@@ -9456,16 +9456,16 @@
         <v>3962.721711253157</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3981490602584833</v>
+        <v>0.3981490645530453</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.6018509397415167</v>
+        <v>-0.6018509354469547</v>
       </c>
       <c r="D45" t="n">
-        <v>78.90656286025296</v>
+        <v>78.90656662457172</v>
       </c>
       <c r="E45" t="n">
-        <v>165.4877340988237</v>
+        <v>165.4877378631427</v>
       </c>
     </row>
     <row r="46">
@@ -9473,16 +9473,16 @@
         <v>3979.164539930555</v>
       </c>
       <c r="B46" t="n">
-        <v>0.420090233043335</v>
+        <v>0.4200902366526927</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.5799097669566651</v>
+        <v>-0.5799097633473073</v>
       </c>
       <c r="D46" t="n">
-        <v>85.6333812863179</v>
+        <v>85.63338511565735</v>
       </c>
       <c r="E46" t="n">
-        <v>155.7717238474902</v>
+        <v>155.771727676829</v>
       </c>
     </row>
     <row r="47">
@@ -9490,16 +9490,16 @@
         <v>3995.607368607954</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4421907292659807</v>
+        <v>0.4421907321652264</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.5578092707340192</v>
+        <v>-0.5578092678347737</v>
       </c>
       <c r="D47" t="n">
-        <v>92.7223796839769</v>
+        <v>92.72238356685557</v>
       </c>
       <c r="E47" t="n">
-        <v>146.4178935677496</v>
+        <v>146.4178974506281</v>
       </c>
     </row>
     <row r="48">
@@ -9507,16 +9507,16 @@
         <v>4012.050197285354</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4643808955355974</v>
+        <v>0.464380897706621</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.5356191044644026</v>
+        <v>-0.5356191022933789</v>
       </c>
       <c r="D48" t="n">
-        <v>100.1756055683384</v>
+        <v>100.1756094929219</v>
       </c>
       <c r="E48" t="n">
-        <v>137.4282907747124</v>
+        <v>137.4282946992957</v>
       </c>
     </row>
     <row r="49">
@@ -9524,16 +9524,16 @@
         <v>4028.493025962753</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4865910904814061</v>
+        <v>0.4865910919130382</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.5134089095185939</v>
+        <v>-0.5134089080869617</v>
       </c>
       <c r="D49" t="n">
-        <v>107.9939603511261</v>
+        <v>107.9939643053387</v>
       </c>
       <c r="E49" t="n">
-        <v>128.8038168801004</v>
+        <v>128.8038208343132</v>
       </c>
     </row>
     <row r="50">
@@ -9541,16 +9541,16 @@
         <v>4044.935854640152</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5087523353990518</v>
+        <v>0.5087523360870954</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.4912476646009482</v>
+        <v>-0.4912476639129046</v>
       </c>
       <c r="D50" t="n">
-        <v>116.1772049131275</v>
+        <v>116.1772088847681</v>
       </c>
       <c r="E50" t="n">
-        <v>120.5442327647033</v>
+        <v>120.5442367363437</v>
       </c>
     </row>
     <row r="51">
@@ -9558,16 +9558,16 @@
         <v>4061.37868331755</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5307969414947769</v>
+        <v>0.5307969414419311</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.4692030585052231</v>
+        <v>-0.4692030585580689</v>
       </c>
       <c r="D51" t="n">
-        <v>124.7239756955589</v>
+        <v>124.7239796724134</v>
       </c>
       <c r="E51" t="n">
-        <v>112.6481748697361</v>
+        <v>112.6481788465903</v>
       </c>
     </row>
     <row r="52">
@@ -9575,16 +9575,16 @@
         <v>4077.82151199495</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5526591047771322</v>
+        <v>0.5526591039928133</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.4473408952228678</v>
+        <v>-0.4473408960071867</v>
       </c>
       <c r="D52" t="n">
-        <v>133.6318108507653</v>
+        <v>133.6318148207197</v>
       </c>
       <c r="E52" t="n">
-        <v>105.1131813475424</v>
+        <v>105.113185317497</v>
       </c>
     </row>
     <row r="53">
@@ -9592,16 +9592,16 @@
         <v>4094.264340672348</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5742754605821978</v>
+        <v>0.574275459082262</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.4257245394178022</v>
+        <v>-0.425724540917738</v>
       </c>
       <c r="D53" t="n">
-        <v>142.8971858530372</v>
+        <v>142.8971898041864</v>
       </c>
       <c r="E53" t="n">
-        <v>97.93572767241653</v>
+        <v>97.93573162356552</v>
       </c>
     </row>
     <row r="54">
@@ -9609,16 +9609,16 @@
         <v>4110.707169349747</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5955855907833528</v>
+        <v>0.5955855885897321</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.4044144092166472</v>
+        <v>-0.4044144114102679</v>
       </c>
       <c r="D54" t="n">
-        <v>152.5155578471426</v>
+        <v>152.5155617678911</v>
       </c>
       <c r="E54" t="n">
-        <v>91.11127098912289</v>
+        <v>91.11127490987133</v>
       </c>
     </row>
     <row r="55">
@@ -9626,16 +9626,16 @@
         <v>4127.149998027146</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6165324778978412</v>
+        <v>0.6165324750381005</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.3834675221021588</v>
+        <v>-0.3834675249618995</v>
       </c>
       <c r="D55" t="n">
-        <v>162.4814179073296</v>
+        <v>162.481421786491</v>
       </c>
       <c r="E55" t="n">
-        <v>84.63430237191051</v>
+        <v>84.63430625107139</v>
       </c>
     </row>
     <row r="56">
@@ -9643,16 +9643,16 @@
         <v>4143.592826704546</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6370629015264925</v>
+        <v>0.6370628980333192</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.3629370984735075</v>
+        <v>-0.3629371019666808</v>
       </c>
       <c r="D56" t="n">
-        <v>172.7883502944301</v>
+        <v>172.7883541213128</v>
       </c>
       <c r="E56" t="n">
-        <v>78.49840608161185</v>
+        <v>78.49840990849475</v>
       </c>
     </row>
     <row r="57">
@@ -9660,16 +9660,16 @@
         <v>4160.035655381945</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6571277738169935</v>
+        <v>0.6571277697276325</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.3428722261830065</v>
+        <v>-0.3428722302723675</v>
       </c>
       <c r="D57" t="n">
-        <v>183.4290977339115</v>
+        <v>183.4291014984019</v>
       </c>
       <c r="E57" t="n">
-        <v>72.6963248436939</v>
+        <v>72.69632860818433</v>
       </c>
     </row>
     <row r="58">
@@ -9677,16 +9677,16 @@
         <v>4176.478484059344</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6766824118934854</v>
+        <v>0.6766824072491309</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.3233175881065146</v>
+        <v>-0.3233175927508691</v>
       </c>
       <c r="D58" t="n">
-        <v>194.3956316936383</v>
+        <v>194.3956353862659</v>
       </c>
       <c r="E58" t="n">
-        <v>67.22003012602181</v>
+        <v>67.22003381864943</v>
       </c>
     </row>
     <row r="59">
@@ -9694,16 +9694,16 @@
         <v>4192.921312736742</v>
       </c>
       <c r="B59" t="n">
-        <v>0.695686746416542</v>
+        <v>0.6956867412616997</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.304313253583458</v>
+        <v>-0.3043132587383003</v>
       </c>
       <c r="D59" t="n">
-        <v>205.6792266163752</v>
+        <v>205.6792302283766</v>
       </c>
       <c r="E59" t="n">
-        <v>62.06079637136031</v>
+        <v>62.06079998336145</v>
       </c>
     </row>
     <row r="60">
@@ -9711,16 +9711,16 @@
         <v>4209.364141414141</v>
       </c>
       <c r="B60" t="n">
-        <v>0.714105466601223</v>
+        <v>0.7141054609830552</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.285894533398777</v>
+        <v>-0.2858945390169448</v>
       </c>
       <c r="D60" t="n">
-        <v>217.2705370579965</v>
+        <v>217.2705405813622</v>
       </c>
       <c r="E60" t="n">
-        <v>57.20927813558251</v>
+        <v>57.20928165894861</v>
       </c>
     </row>
     <row r="61">
@@ -9728,16 +9728,16 @@
         <v>4225.80697009154</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7319081031037175</v>
+        <v>0.7319080970713826</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.2680918968962825</v>
+        <v>-0.2680919029286174</v>
       </c>
       <c r="D61" t="n">
-        <v>229.1596766967505</v>
+        <v>229.159680124264</v>
       </c>
       <c r="E61" t="n">
-        <v>52.65558909693777</v>
+        <v>52.65559252445109</v>
       </c>
     </row>
     <row r="62">
@@ -9745,16 +9745,16 @@
         <v>4242.249798768939</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7490690511699031</v>
+        <v>0.7490690447739019</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.2509309488300969</v>
+        <v>-0.2509309552260981</v>
       </c>
       <c r="D62" t="n">
-        <v>241.3362982103858</v>
+        <v>241.3363015356513</v>
       </c>
       <c r="E62" t="n">
-        <v>48.38938193317381</v>
+        <v>48.38938525843923</v>
       </c>
     </row>
     <row r="63">
@@ -9762,16 +9762,16 @@
         <v>4258.692627446339</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7655675373065698</v>
+        <v>0.7655675305981089</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.2344324626934302</v>
+        <v>-0.2344324694018911</v>
       </c>
       <c r="D63" t="n">
-        <v>253.7896730645753</v>
+        <v>253.7896762820324</v>
       </c>
       <c r="E63" t="n">
-        <v>44.39992810996375</v>
+        <v>44.39993132742154</v>
       </c>
     </row>
     <row r="64">
@@ -9779,16 +9779,16 @@
         <v>4275.135456123737</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7813875334771925</v>
+        <v>0.7813875265075746</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.2186124665228075</v>
+        <v>-0.2186124734924254</v>
       </c>
       <c r="D64" t="n">
-        <v>266.5087703159529</v>
+        <v>266.5087734208878</v>
       </c>
       <c r="E64" t="n">
-        <v>40.6761966839432</v>
+        <v>40.67619978887797</v>
       </c>
     </row>
     <row r="65">
@@ -9796,16 +9796,16 @@
         <v>4291.578284801137</v>
       </c>
       <c r="B65" t="n">
-        <v>0.796517623431952</v>
+        <v>0.7965176162520012</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.203482376568048</v>
+        <v>-0.2034823837479988</v>
       </c>
       <c r="D65" t="n">
-        <v>279.4823336041063</v>
+        <v>279.4823365926418</v>
       </c>
       <c r="E65" t="n">
-        <v>37.20693129469669</v>
+        <v>37.20693428323261</v>
       </c>
     </row>
     <row r="66">
@@ -9813,16 +9813,16 @@
         <v>4308.021113478535</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8109508262532323</v>
+        <v>0.8109508189127623</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.1890491737467677</v>
+        <v>-0.1890491810872377</v>
       </c>
       <c r="D66" t="n">
-        <v>292.6989555866603</v>
+        <v>292.6989584557505</v>
       </c>
       <c r="E66" t="n">
-        <v>33.98072459985258</v>
+        <v>33.98072746894275</v>
       </c>
     </row>
     <row r="67">
@@ -9830,16 +9830,16 @@
         <v>4324.463942155934</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8246843825338568</v>
+        <v>0.8246843750811874</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.1753156174661432</v>
+        <v>-0.1753156249188126</v>
       </c>
       <c r="D67" t="n">
-        <v>306.1471491581628</v>
+        <v>306.1471519055672</v>
       </c>
       <c r="E67" t="n">
-        <v>30.98608949395532</v>
+        <v>30.98609224135987</v>
       </c>
     </row>
     <row r="68">
@@ -9847,16 +9847,16 @@
         <v>4340.906770833333</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8377195088096923</v>
+        <v>0.8377195012912182</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.1622804911903077</v>
+        <v>-0.1622804987087818</v>
       </c>
       <c r="D68" t="n">
-        <v>319.8154148843341</v>
+        <v>319.8154175085929</v>
       </c>
       <c r="E68" t="n">
-        <v>28.21152654272839</v>
+        <v>28.21152916698736</v>
       </c>
     </row>
     <row r="69">
@@ -9864,16 +9864,16 @@
         <v>4357.349599510732</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8500611259481243</v>
+        <v>0.8500611184079403</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.1499388740518757</v>
+        <v>-0.1499388815920597</v>
       </c>
       <c r="D69" t="n">
-        <v>333.692304176579</v>
+        <v>333.6923066769764</v>
       </c>
       <c r="E69" t="n">
-        <v>25.64558715757403</v>
+        <v>25.64558965797096</v>
       </c>
     </row>
     <row r="70">
@@ -9881,16 +9881,16 @@
         <v>4373.792428188131</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8617175671583623</v>
+        <v>0.8617175596379463</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.1382824328416377</v>
+        <v>-0.1382824403620537</v>
       </c>
       <c r="D70" t="n">
-        <v>347.7664778251883</v>
+        <v>347.7664802017111</v>
       </c>
       <c r="E70" t="n">
-        <v>23.27693212878432</v>
+        <v>23.2769345053066</v>
       </c>
     </row>
     <row r="71">
@@ -9898,16 +9898,16 @@
         <v>4390.23525686553</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8727002711500298</v>
+        <v>0.8727002636879836</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.1272997288499702</v>
+        <v>-0.1272997363120164</v>
       </c>
       <c r="D71" t="n">
-        <v>362.0267596018775</v>
+        <v>362.026761855172</v>
       </c>
       <c r="E71" t="n">
-        <v>21.094385228075</v>
+        <v>21.09438748136949</v>
       </c>
     </row>
     <row r="72">
@@ -9915,16 +9915,16 @@
         <v>4406.678085542929</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8830234657356113</v>
+        <v>0.8830234583674595</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.1169765342643887</v>
+        <v>-0.1169765416325405</v>
       </c>
       <c r="D72" t="n">
-        <v>376.4621847313533</v>
+        <v>376.4621868626773</v>
       </c>
       <c r="E72" t="n">
-        <v>19.08698168015201</v>
+        <v>19.08698381147542</v>
       </c>
     </row>
     <row r="73">
@@ -9932,16 +9932,16 @@
         <v>4423.120914220328</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8927038468637408</v>
+        <v>0.8927038396217863</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.1072961531362592</v>
+        <v>-0.1072961603782137</v>
       </c>
       <c r="D73" t="n">
-        <v>391.0620431162561</v>
+        <v>391.0620451274212</v>
       </c>
       <c r="E73" t="n">
-        <v>17.24401138765541</v>
+        <v>17.24401339882024</v>
       </c>
     </row>
     <row r="74">
@@ -9949,16 +9949,16 @@
         <v>4439.563742897727</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9017602576981396</v>
+        <v>0.9017602506113719</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.09823974230186039</v>
+        <v>-0.09823974938862812</v>
       </c>
       <c r="D74" t="n">
-        <v>405.8159172788187</v>
+        <v>405.8159191721438</v>
       </c>
       <c r="E74" t="n">
-        <v>15.55505687281953</v>
+        <v>15.55505876614421</v>
       </c>
     </row>
     <row r="75">
@@ -9966,16 +9966,16 @@
         <v>4456.006571575126</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9102133719353704</v>
+        <v>0.9102133650294253</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.08978662806462956</v>
+        <v>-0.08978663497057471</v>
       </c>
       <c r="D75" t="n">
-        <v>420.7137150551057</v>
+        <v>420.7137168333584</v>
       </c>
       <c r="E75" t="n">
-        <v>14.01002597170742</v>
+        <v>14.01002774995987</v>
       </c>
     </row>
     <row r="76">
@@ -9983,16 +9983,16 @@
         <v>4472.449400252525</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9180853850973519</v>
+        <v>0.9180853783945169</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.08191461490264806</v>
+        <v>-0.08191462160548313</v>
       </c>
       <c r="D76" t="n">
-        <v>435.7456971428524</v>
+        <v>435.7456988091935</v>
       </c>
       <c r="E76" t="n">
-        <v>12.5991793820545</v>
+        <v>12.59918104839522</v>
       </c>
     </row>
     <row r="77">
@@ -10000,16 +10000,16 @@
         <v>4488.892228929924</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9253997170549276</v>
+        <v>0.9253997105741909</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.07460028294507237</v>
+        <v>-0.0746002894258091</v>
       </c>
       <c r="D77" t="n">
-        <v>450.9024996614926</v>
+        <v>450.902501219422</v>
       </c>
       <c r="E77" t="n">
-        <v>11.31315322329556</v>
+        <v>11.31315478122553</v>
       </c>
     </row>
     <row r="78">
@@ -10017,16 +10017,16 @@
         <v>4505.335057607323</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9321807285489903</v>
+        <v>0.9321807223061261</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.06781927145100974</v>
+        <v>-0.06781927769387386</v>
       </c>
       <c r="D78" t="n">
-        <v>466.1751519324603</v>
+        <v>466.1751533857646</v>
       </c>
       <c r="E78" t="n">
-        <v>10.14297681686554</v>
+        <v>10.14297827016935</v>
       </c>
     </row>
     <row r="79">
@@ -10034,16 +10034,16 @@
         <v>4521.777886284722</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9384534539868551</v>
+        <v>0.9384534479945433</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.06154654601314491</v>
+        <v>-0.06154655200545667</v>
       </c>
       <c r="D79" t="n">
-        <v>481.5550897293142</v>
+        <v>481.5550910820125</v>
       </c>
       <c r="E79" t="n">
-        <v>9.080085936320302</v>
+        <v>9.080087289018479</v>
       </c>
     </row>
     <row r="80">
@@ -10051,16 +10051,16 @@
         <v>4538.220714962121</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9442433523136144</v>
+        <v>0.9442433465815864</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.05575664768638555</v>
+        <v>-0.05575665341841363</v>
       </c>
       <c r="D80" t="n">
-        <v>497.0341642807261</v>
+        <v>497.0341655370221</v>
       </c>
       <c r="E80" t="n">
-        <v>8.116331810331957</v>
+        <v>8.116333066628499</v>
       </c>
     </row>
     <row r="81">
@@ -10068,16 +10068,16 @@
         <v>4554.66354363952</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9495760772995764</v>
+        <v>0.9495760718347851</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.05042392270042362</v>
+        <v>-0.0504239281652149</v>
       </c>
       <c r="D81" t="n">
-        <v>512.604647335188</v>
+        <v>512.6046484994235</v>
       </c>
       <c r="E81" t="n">
-        <v>7.243986187395677</v>
+        <v>7.243987351630523</v>
       </c>
     </row>
     <row r="82">
@@ -10085,16 +10085,16 @@
         <v>4571.106372316919</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9544772681526168</v>
+        <v>0.9544772629594243</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.0455227318473832</v>
+        <v>-0.04552273704057574</v>
       </c>
       <c r="D82" t="n">
-        <v>528.2592326147401</v>
+        <v>528.2592336913472</v>
       </c>
       <c r="E82" t="n">
-        <v>6.455742789548765</v>
+        <v>6.4557438661557</v>
       </c>
     </row>
     <row r="83">
@@ -10102,16 +10102,16 @@
         <v>4587.549200994318</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9589723609639975</v>
+        <v>0.9589723560443759</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.04102763903600248</v>
+        <v>-0.04102764395562408</v>
       </c>
       <c r="D83" t="n">
-        <v>543.9910339966027</v>
+        <v>543.9910349900665</v>
       </c>
       <c r="E83" t="n">
-        <v>5.744715494011388</v>
+        <v>5.744716487475387</v>
       </c>
     </row>
     <row r="84">
@@ -10119,16 +10119,16 @@
         <v>4603.992029671717</v>
       </c>
       <c r="B84" t="n">
-        <v>0.96308642113214</v>
+        <v>0.9630864164858823</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.03691357886785995</v>
+        <v>-0.03691358351411766</v>
       </c>
       <c r="D84" t="n">
-        <v>559.793580766951</v>
+        <v>559.7935816817708</v>
       </c>
       <c r="E84" t="n">
-        <v>5.104433586960909</v>
+        <v>5.104434501781554</v>
       </c>
     </row>
     <row r="85">
@@ -10136,16 +10136,16 @@
         <v>4620.434858349116</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9668439965838946</v>
+        <v>0.9668439922088296</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.03315600341610536</v>
+        <v>-0.03315600779117045</v>
       </c>
       <c r="D85" t="n">
-        <v>575.6608102907089</v>
+        <v>575.6608111313658</v>
       </c>
       <c r="E85" t="n">
-        <v>4.528834433321038</v>
+        <v>4.528835273977791</v>
       </c>
     </row>
     <row r="86">
@@ -10153,16 +10153,16 @@
         <v>4636.877687026515</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9702689913286912</v>
+        <v>0.9702689872209002</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.02973100867130885</v>
+        <v>-0.02973101277909984</v>
       </c>
       <c r="D86" t="n">
-        <v>591.5870584358554</v>
+        <v>591.5870592067781</v>
       </c>
       <c r="E86" t="n">
-        <v>4.012253901068419</v>
+        <v>4.01225467199049</v>
       </c>
     </row>
     <row r="87">
@@ -10170,16 +10170,16 @@
         <v>4653.320515703914</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9733845586381754</v>
+        <v>0.9733845547922071</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.02661544136182459</v>
+        <v>-0.02661544520779291</v>
       </c>
       <c r="D87" t="n">
-        <v>607.5670480810672</v>
+        <v>607.5670487866059</v>
       </c>
       <c r="E87" t="n">
-        <v>3.549414868880405</v>
+        <v>3.549415574419996</v>
       </c>
     </row>
     <row r="88">
@@ -10187,16 +10187,16 @@
         <v>4669.763344381313</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9762130129421165</v>
+        <v>0.9762130093511974</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.02378698705788351</v>
+        <v>-0.02378699064880263</v>
       </c>
       <c r="D88" t="n">
-        <v>623.5958760221811</v>
+        <v>623.5958766665881</v>
       </c>
       <c r="E88" t="n">
-        <v>3.135414132595216</v>
+        <v>3.135414777003021</v>
       </c>
     </row>
     <row r="89">
@@ -10204,16 +10204,16 @@
         <v>4686.206173058712</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9787757593692752</v>
+        <v>0.978775756025512</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.02122424063072481</v>
+        <v>-0.02122424397448797</v>
       </c>
       <c r="D89" t="n">
-        <v>639.6689985766029</v>
+        <v>639.6689991640096</v>
       </c>
       <c r="E89" t="n">
-        <v>2.765708009618294</v>
+        <v>2.765708597024712</v>
       </c>
     </row>
     <row r="90">
@@ -10221,16 +10221,16 @@
         <v>4702.64900173611</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9810932397376159</v>
+        <v>0.9810932366321896</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.01890676026238414</v>
+        <v>-0.01890676336781039</v>
       </c>
       <c r="D90" t="n">
-        <v>655.7822161661115</v>
+        <v>655.7822167005088</v>
       </c>
       <c r="E90" t="n">
-        <v>2.436096921728364</v>
+        <v>2.436097456126049</v>
       </c>
     </row>
     <row r="91">
@@ -10238,16 +10238,16 @@
         <v>4719.09183041351</v>
       </c>
       <c r="B91" t="n">
-        <v>0.983184893709248</v>
+        <v>0.9831848908325963</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.016815106290752</v>
+        <v>-0.0168151091674037</v>
       </c>
       <c r="D91" t="n">
-        <v>671.9316571380732</v>
+        <v>671.9316576233036</v>
       </c>
       <c r="E91" t="n">
-        <v>2.142709216290498</v>
+        <v>2.142709701520459</v>
       </c>
     </row>
     <row r="92">
@@ -10255,16 +10255,16 @@
         <v>4735.534659090908</v>
       </c>
       <c r="B92" t="n">
-        <v>0.985069133768867</v>
+        <v>0.9850691311108549</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.01493086623113304</v>
+        <v>-0.01493086888914508</v>
       </c>
       <c r="D92" t="n">
-        <v>688.1137610634405</v>
+        <v>688.1137615031816</v>
       </c>
       <c r="E92" t="n">
-        <v>1.881984464259574</v>
+        <v>1.881984904001115</v>
       </c>
     </row>
     <row r="93">
@@ -10272,16 +10272,16 @@
         <v>4751.977487768308</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9867633326570594</v>
+        <v>0.9867633302071369</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.0132366673429406</v>
+        <v>-0.01323666979286309</v>
       </c>
       <c r="D93" t="n">
-        <v>704.3252617276175</v>
+        <v>704.3252621253782</v>
       </c>
       <c r="E93" t="n">
-        <v>1.650656451037023</v>
+        <v>1.650656848798633</v>
       </c>
     </row>
     <row r="94">
@@ -10289,16 +10289,16 @@
         <v>4768.420316445707</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9882838218882389</v>
+        <v>0.9882838196355846</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.01171617811176107</v>
+        <v>-0.01171618036441535</v>
       </c>
       <c r="D94" t="n">
-        <v>720.5631700076742</v>
+        <v>720.56317036679</v>
       </c>
       <c r="E94" t="n">
-        <v>1.445736053695491</v>
+        <v>1.445736412810362</v>
       </c>
     </row>
     <row r="95">
@@ -10306,16 +10306,16 @@
         <v>4784.863145123106</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9896459000037683</v>
+        <v>0.9896458979374189</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.01035409999623171</v>
+        <v>-0.01035410206258114</v>
       </c>
       <c r="D95" t="n">
-        <v>736.8247568070765</v>
+        <v>736.8247571306988</v>
       </c>
       <c r="E95" t="n">
-        <v>1.264494175698204</v>
+        <v>1.26449449931971</v>
       </c>
     </row>
     <row r="96">
@@ -10323,16 +10323,16 @@
         <v>4801.305973800505</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9908638492505428</v>
+        <v>0.9908638473595093</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.009136150749457173</v>
+        <v>-0.009136152640490725</v>
       </c>
       <c r="D96" t="n">
-        <v>753.1075361971284</v>
+        <v>753.1075364882295</v>
       </c>
       <c r="E96" t="n">
-        <v>1.104444888351033</v>
+        <v>1.104445179452341</v>
       </c>
     </row>
     <row r="97">
@@ -10340,16 +10340,16 @@
         <v>4817.748802477903</v>
       </c>
       <c r="B97" t="n">
-        <v>0.991950959430654</v>
+        <v>0.9919509577040234</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.008049040569345967</v>
+        <v>-0.008049042295976583</v>
       </c>
       <c r="D97" t="n">
-        <v>769.4092488933061</v>
+        <v>769.4092491546794</v>
       </c>
       <c r="E97" t="n">
-        <v>0.963328907130176</v>
+        <v>0.9633291685040106</v>
       </c>
     </row>
     <row r="98">
@@ -10357,16 +10357,16 @@
         <v>4834.191631155303</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9929195577355096</v>
+        <v>0.9929195561625336</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.00708044226449045</v>
+        <v>-0.007080443837466421</v>
       </c>
       <c r="D98" t="n">
-        <v>785.7278461745168</v>
+        <v>785.7278464087781</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8390975109414995</v>
+        <v>0.8390977452025368</v>
       </c>
     </row>
     <row r="99">
@@ -10374,16 +10374,16 @@
         <v>4850.634459832701</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9937810434550137</v>
+        <v>0.9937810420251842</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.006218956544986276</v>
+        <v>-0.006218957974815753</v>
       </c>
       <c r="D99" t="n">
-        <v>802.061474334454</v>
+        <v>802.0614745440421</v>
       </c>
       <c r="E99" t="n">
-        <v>0.729896993480601</v>
+        <v>0.7298972030684929</v>
       </c>
     </row>
     <row r="100">
@@ -10391,16 +10391,16 @@
         <v>4867.077288510101</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9945459265363569</v>
+        <v>0.9945459252394695</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.005454073463643128</v>
+        <v>-0.005454074760530503</v>
       </c>
       <c r="D100" t="n">
-        <v>818.4084597366777</v>
+        <v>818.4084599238622</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6340537183048518</v>
+        <v>0.6340539054890151</v>
       </c>
     </row>
     <row r="101">
@@ -10408,16 +10408,16 @@
         <v>4883.5201171875</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9952238690551667</v>
+        <v>0.9952238678813723</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.004776130944833312</v>
+        <v>-0.004776132118627707</v>
       </c>
       <c r="D101" t="n">
-        <v>834.7672945288596</v>
+        <v>834.7672946957446</v>
       </c>
       <c r="E101" t="n">
-        <v>0.550059833087694</v>
+        <v>0.5500599999725928</v>
       </c>
     </row>
   </sheetData>
@@ -11607,16 +11607,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>126.2000343139221</v>
+        <v>126.2000381908484</v>
       </c>
       <c r="C2" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D2" t="n">
-        <v>2.932921767945501</v>
+        <v>2.932921865927639</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.001002311706542969</v>
       </c>
     </row>
     <row r="3">
@@ -11624,16 +11624,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>130.3162413889534</v>
+        <v>130.3162454040655</v>
       </c>
       <c r="C3" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D3" t="n">
-        <v>1.183285307085725</v>
+        <v>1.183285347289484</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001015663146972656</v>
+        <v>0.003117799758911133</v>
       </c>
     </row>
     <row r="4">
@@ -11641,16 +11641,16 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>128.5395653948307</v>
+        <v>128.5395693499148</v>
       </c>
       <c r="C4" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5933906870369583</v>
+        <v>0.5933907068611859</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0.006330966949462891</v>
       </c>
     </row>
     <row r="5">
@@ -11658,16 +11658,16 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>128.835875071269</v>
+        <v>128.8358790362535</v>
       </c>
       <c r="C5" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2970810105986175</v>
+        <v>0.2970810205224836</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01066827774047852</v>
+        <v>0.02584075927734375</v>
       </c>
     </row>
     <row r="6">
@@ -11675,16 +11675,16 @@
         <v>150</v>
       </c>
       <c r="B6" t="n">
-        <v>128.9348177333038</v>
+        <v>128.9348217015932</v>
       </c>
       <c r="C6" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1981383485638162</v>
+        <v>0.1981383551828628</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02142548561096191</v>
+        <v>0.04352855682373047</v>
       </c>
     </row>
     <row r="7">
@@ -11692,16 +11692,16 @@
         <v>200</v>
       </c>
       <c r="B7" t="n">
-        <v>128.984320884846</v>
+        <v>128.9843248547922</v>
       </c>
       <c r="C7" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1486351970216049</v>
+        <v>0.1486352019838364</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03911519050598145</v>
+        <v>0.06903243064880371</v>
       </c>
     </row>
     <row r="8">
@@ -11709,16 +11709,16 @@
         <v>250</v>
       </c>
       <c r="B8" t="n">
-        <v>129.0140328844778</v>
+        <v>129.0140368554139</v>
       </c>
       <c r="C8" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1189231973898472</v>
+        <v>0.1189232013621222</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07328176498413086</v>
+        <v>0.09695816040039062</v>
       </c>
     </row>
     <row r="9">
@@ -11726,16 +11726,16 @@
         <v>300</v>
       </c>
       <c r="B9" t="n">
-        <v>129.0338450791772</v>
+        <v>129.033849050779</v>
       </c>
       <c r="C9" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09911100269042095</v>
+        <v>0.09911100599700262</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1018211841583252</v>
+        <v>0.1606647968292236</v>
       </c>
     </row>
     <row r="10">
@@ -11743,16 +11743,16 @@
         <v>350</v>
       </c>
       <c r="B10" t="n">
-        <v>129.0479986959959</v>
+        <v>129.0480026680666</v>
       </c>
       <c r="C10" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08495738587171786</v>
+        <v>0.08495738870945502</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1325685977935791</v>
+        <v>0.1708433628082275</v>
       </c>
     </row>
     <row r="11">
@@ -11760,16 +11760,16 @@
         <v>400</v>
       </c>
       <c r="B11" t="n">
-        <v>129.0586150271617</v>
+        <v>129.0586189995869</v>
       </c>
       <c r="C11" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07434105470596819</v>
+        <v>0.0743410571891161</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1501760482788086</v>
+        <v>0.2491321563720703</v>
       </c>
     </row>
   </sheetData>

--- a/DRM_Output/DRM_Results_Consolidated.xlsx
+++ b/DRM_Output/DRM_Results_Consolidated.xlsx
@@ -11616,7 +11616,7 @@
         <v>2.932921865927639</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001002311706542969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -11633,7 +11633,7 @@
         <v>1.183285347289484</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003117799758911133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -11650,7 +11650,7 @@
         <v>0.5933907068611859</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006330966949462891</v>
+        <v>0.00251460075378418</v>
       </c>
     </row>
     <row r="5">
@@ -11667,7 +11667,7 @@
         <v>0.2970810205224836</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02584075927734375</v>
+        <v>0.01006746292114258</v>
       </c>
     </row>
     <row r="6">
@@ -11684,7 +11684,7 @@
         <v>0.1981383551828628</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04352855682373047</v>
+        <v>0.02332091331481934</v>
       </c>
     </row>
     <row r="7">
@@ -11701,7 +11701,7 @@
         <v>0.1486352019838364</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06903243064880371</v>
+        <v>0.04246950149536133</v>
       </c>
     </row>
     <row r="8">
@@ -11718,7 +11718,7 @@
         <v>0.1189232013621222</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09695816040039062</v>
+        <v>0.0638887882232666</v>
       </c>
     </row>
     <row r="9">
@@ -11735,7 +11735,7 @@
         <v>0.09911100599700262</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1606647968292236</v>
+        <v>0.08762097358703613</v>
       </c>
     </row>
     <row r="10">
@@ -11752,7 +11752,7 @@
         <v>0.08495738870945502</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1708433628082275</v>
+        <v>0.1312329769134521</v>
       </c>
     </row>
     <row r="11">
@@ -11769,7 +11769,7 @@
         <v>0.0743410571891161</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2491321563720703</v>
+        <v>0.1921737194061279</v>
       </c>
     </row>
   </sheetData>
